--- a/tool/軸承估算1.xlsx
+++ b/tool/軸承估算1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amei\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rock\Project\mechanics_tools\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="軸承壽命估算" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="NN30 &amp;N10 軸承預壓與轉速估算 " sheetId="6" r:id="rId6"/>
     <sheet name="球面滾子推力軸承計算預壓" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A41F2A-B54A-45BA-BA97-92FA6BF76225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9A41F2A-B54A-45BA-BA97-92FA6BF76225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639C643E-4FE9-EA30-28EF-204C5C93DC26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{639C643E-4FE9-EA30-28EF-204C5C93DC26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F719ED2-6718-0BB4-FE89-C71AEF700068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F719ED2-6718-0BB4-FE89-C71AEF700068}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
         <xdr:cNvPr id="2049" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CCC116E-7F02-28E7-BCC1-8219372AF07E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CCC116E-7F02-28E7-BCC1-8219372AF07E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E17B87-D90A-AF9B-D1A3-024BD2F04F4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7E17B87-D90A-AF9B-D1A3-024BD2F04F4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1626,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA221499-B476-4564-B0AF-9D80488BF599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA221499-B476-4564-B0AF-9D80488BF599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,10 +1952,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2040,7 +2041,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8vEEapPsqlRtlV7Ko2vVAJmuan+wGWlP1twLptZWG5/RtdcR1X500Kr6PKP7RgFZOuDkvk7r/71oPfXfaruVjg==" saltValue="2JKPYBIqiqYpTdklFX00NQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -2052,10 +2053,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2353,22 +2355,24 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HzYXvQB9irluWfzOZv+50rEVfydRXojk1ehz8nelgbLfs10ZEAGzSbExgkoZu+oM3B2fd3RILOIqLURf6LbVBA==" saltValue="7Cft6GAouJNv1A1B1Aay6Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3"/>
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2627,7 +2631,7 @@
       <c r="D20" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ojCsExPaadgucGU5eAAsS6qIjw2fjZBCu8mpJ40U8sYl6HoFPt3jkxZT4SGCfkaIsxwrRLaIQD1XvdBJ8SAmqg==" saltValue="ZNEgkqNC+9zq/XVO0tbYJA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="D3:D9"/>
@@ -2640,10 +2644,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表4"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z27" sqref="Z27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2982,6 +2987,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="4">
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
@@ -2997,10 +3003,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表5"/>
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3271,7 +3278,7 @@
       <c r="G32" s="5"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="6">
     <mergeCell ref="A29:G29"/>
     <mergeCell ref="A26:G26"/>
@@ -3288,10 +3295,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表6"/>
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3405,7 +3413,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MQau7S6nytaPuiv/2Li51NQ+qsN4PmpqG4f+zT/bJSSzm/H05xjUAlCmLWSg/TBobQbpaHDeveHd1OWsh8FMoQ==" saltValue="ev+DquAjQDSQkv7VxKlv5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -3416,6 +3424,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表7"/>
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3561,7 +3570,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="172SBg/AbEPBsdkRSNXdf6FN/qgbdVGoX6D6KlPc9EFL5rRvkOIC/fZmkSfZStLpICLpJuwaiQm870iAnVM7qA==" saltValue="l5LEApGd/CTyBMxkhtBqxw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="J2:N2"/>

--- a/tool/軸承估算1.xlsx
+++ b/tool/軸承估算1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rock\Project\mechanics_tools\tool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio Code\自我練習\Mechanice_tool\tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="軸承壽命估算" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="NN30 &amp;N10 軸承預壓與轉速估算 " sheetId="6" r:id="rId6"/>
     <sheet name="球面滾子推力軸承計算預壓" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
@@ -1341,7 +1341,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C9A41F2A-B54A-45BA-BA97-92FA6BF76225}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A41F2A-B54A-45BA-BA97-92FA6BF76225}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
         <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{639C643E-4FE9-EA30-28EF-204C5C93DC26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{639C643E-4FE9-EA30-28EF-204C5C93DC26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1468,7 @@
         <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7F719ED2-6718-0BB4-FE89-C71AEF700068}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F719ED2-6718-0BB4-FE89-C71AEF700068}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1529,7 +1529,7 @@
         <xdr:cNvPr id="2049" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CCC116E-7F02-28E7-BCC1-8219372AF07E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CCC116E-7F02-28E7-BCC1-8219372AF07E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1577,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7E17B87-D90A-AF9B-D1A3-024BD2F04F4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E17B87-D90A-AF9B-D1A3-024BD2F04F4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1626,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA221499-B476-4564-B0AF-9D80488BF599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA221499-B476-4564-B0AF-9D80488BF599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1955,24 +1955,24 @@
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>45</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2056,20 +2056,20 @@
   <sheetPr codeName="工作表2"/>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
@@ -2077,7 +2077,7 @@
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>104</v>
       </c>
@@ -2205,7 +2205,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="C14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>97</v>
       </c>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="C15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="C17" s="14"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>27530.859374999996</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -2275,7 +2275,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>118</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>101</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>99</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>102</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -2375,13 +2375,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.125" customWidth="1"/>
+    <col min="1" max="1" width="79.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
         <v>139</v>
       </c>
@@ -2389,7 +2389,7 @@
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
         <v>125</v>
       </c>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>141</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>119</v>
       </c>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="D4" s="38"/>
     </row>
-    <row r="5" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>123</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="D5" s="38"/>
     </row>
-    <row r="6" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>143</v>
       </c>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="D6" s="38"/>
     </row>
-    <row r="7" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>128</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D7" s="38"/>
     </row>
-    <row r="8" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="D8" s="38"/>
     </row>
-    <row r="9" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
         <v>122</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
       <c r="D9" s="39"/>
     </row>
-    <row r="10" spans="1:4" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
         <v>129</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>130</v>
       </c>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="D11" s="38"/>
     </row>
-    <row r="12" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
         <v>131</v>
       </c>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="D12" s="38"/>
     </row>
-    <row r="13" spans="1:4" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>137</v>
       </c>
@@ -2540,7 +2540,7 @@
       </c>
       <c r="D13" s="38"/>
     </row>
-    <row r="14" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
         <v>124</v>
       </c>
@@ -2553,7 +2553,7 @@
       </c>
       <c r="D14" s="38"/>
     </row>
-    <row r="15" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>136</v>
       </c>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="D15" s="38"/>
     </row>
-    <row r="16" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25" t="s">
         <v>133</v>
       </c>
@@ -2578,7 +2578,7 @@
       </c>
       <c r="D16" s="38"/>
     </row>
-    <row r="17" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
         <v>134</v>
       </c>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="D17" s="38"/>
     </row>
-    <row r="18" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25" t="s">
         <v>144</v>
       </c>
@@ -2604,7 +2604,7 @@
       <c r="D18" s="38"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" spans="1:8" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="25" t="s">
         <v>135</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="D19" s="38"/>
     </row>
-    <row r="20" spans="1:8" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="40.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
         <v>138</v>
       </c>
@@ -2651,20 +2651,20 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="H2" s="40"/>
       <c r="I2" s="40"/>
     </row>
-    <row r="3" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
     </row>
-    <row r="6" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="H6" s="40"/>
       <c r="I6" s="40"/>
     </row>
-    <row r="7" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="H7" s="42"/>
       <c r="I7" s="43"/>
     </row>
-    <row r="8" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>43</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3010,14 +3010,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="129.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="129.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>49</v>
       </c>
@@ -3028,12 +3028,12 @@
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" s="6">
         <f>B6/60/1000</f>
         <v>1.9499999999999999E-3</v>
@@ -3076,12 +3076,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" s="6">
         <f>B14/60/1000</f>
         <v>2.4000000000000001E-4</v>
@@ -3150,10 +3150,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -3227,8 +3227,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:9" ht="137.44999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:9" ht="137.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="47" t="s">
         <v>74</v>
       </c>
@@ -3240,7 +3240,7 @@
       <c r="G26" s="49"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" ht="47.45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="47.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="51" t="s">
         <v>60</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="F27" s="52"/>
       <c r="G27" s="53"/>
     </row>
-    <row r="28" spans="1:9" ht="49.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="49.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="51" t="s">
         <v>59</v>
       </c>
@@ -3262,7 +3262,7 @@
       <c r="F28" s="52"/>
       <c r="G28" s="53"/>
     </row>
-    <row r="29" spans="1:9" ht="46.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="46.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="44" t="s">
         <v>61</v>
       </c>
@@ -3273,8 +3273,8 @@
       <c r="F29" s="45"/>
       <c r="G29" s="46"/>
     </row>
-    <row r="30" spans="1:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16.8" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G32" s="5"/>
     </row>
   </sheetData>
@@ -3302,21 +3302,21 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -3369,19 +3369,19 @@
         <v>672000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="21" t="str" cm="1">
-        <f t="array" ref="B8">_xlfn.IFS(B6&lt;1000000,"2~3",B6&gt;1000000,"0~2")</f>
-        <v>2~3</v>
+      <c r="B8" s="21" t="e" cm="1">
+        <f t="array" aca="1" ref="B8" ca="1">_xlfn.IFS(B6&lt;1000000,"2~3",B6&gt;1000000,"0~2")</f>
+        <v>#NAME?</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>114</v>
       </c>
@@ -3431,19 +3431,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>83</v>
       </c>
@@ -3460,7 +3460,7 @@
       <c r="M2" s="55"/>
       <c r="N2" s="55"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>80</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>78</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>84</v>
       </c>
